--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EECS-560\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -97,6 +94,249 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Open Hashing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1169534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1180488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1437828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1479096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1416902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closed Hashing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0870982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0714936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1141158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1169112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1199784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2053842808"/>
+        <c:axId val="2053824664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2053842808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2053824664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2053824664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2053842808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -140,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,7 +415,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -363,12 +603,12 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0.2</v>
       </c>
@@ -392,7 +632,7 @@
         <v>8.7098199999999987E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0.3</v>
       </c>
@@ -405,7 +645,7 @@
         <v>7.1493600000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -418,7 +658,7 @@
         <v>0.11411579999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -431,7 +671,7 @@
         <v>0.11691119999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0.6</v>
       </c>
@@ -444,17 +684,17 @@
         <v>0.1199784</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1</v>
       </c>
@@ -474,7 +714,7 @@
         <v>0.13927500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>2</v>
       </c>
@@ -494,7 +734,7 @@
         <v>0.14061000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>3</v>
       </c>
@@ -514,7 +754,7 @@
         <v>0.15337500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>4</v>
       </c>
@@ -534,7 +774,7 @@
         <v>0.14302200000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>5</v>
       </c>
@@ -554,17 +794,17 @@
         <v>0.13216900000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
@@ -584,7 +824,7 @@
         <v>0.132385</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2</v>
       </c>
@@ -604,7 +844,7 @@
         <v>0.118217</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>3</v>
       </c>
@@ -624,7 +864,7 @@
         <v>0.113538</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>4</v>
       </c>
@@ -644,7 +884,7 @@
         <v>0.117169</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>5</v>
       </c>
@@ -666,5 +906,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EECS-560\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Load</t>
   </si>
@@ -36,10 +41,25 @@
     <t>Seed</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>Open Hashing Average (s)</t>
   </si>
   <si>
-    <t>Closed</t>
+    <t>Closed Hashing Average (s)</t>
+  </si>
+  <si>
+    <t>Load 0.2 Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Load 0.3 Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Load 0.4 Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Load 0.5 Execution Time (s)</t>
+  </si>
+  <si>
+    <t>Load 0.6 Execution Time (s)</t>
   </si>
 </sst>
 </file>
@@ -101,18 +121,89 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Open vs Closed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Hashing</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13178937007874017"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.54128018372703413"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -123,12 +214,60 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Open Hashing</c:v>
+                  <c:v>Open Hashing Average (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11695340000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1180488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14378280000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1479096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14169020000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:numCache>
@@ -151,32 +290,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1169534</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1180488</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1437828</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1479096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1416902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -187,12 +302,60 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Closed Hashing</c:v>
+                  <c:v>Closed Hashing Average (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.7098199999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1493600000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11411579999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11691119999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1199784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:numCache>
@@ -215,34 +378,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.0870982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0714936</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1141158</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1169112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1199784</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -250,76 +390,896 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2053842808"/>
-        <c:axId val="2053824664"/>
+        <c:axId val="1611622272"/>
+        <c:axId val="1611624992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2053842808"/>
+        <c:axId val="1611622272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053824664"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611624992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2053824664"/>
+        <c:axId val="1611624992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053842808"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1611622272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -592,7 +1552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,24 +1562,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.2</v>
       </c>
@@ -632,7 +1600,7 @@
         <v>8.7098199999999987E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.3</v>
       </c>
@@ -645,7 +1613,7 @@
         <v>7.1493600000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -658,7 +1626,7 @@
         <v>0.11411579999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -671,7 +1639,7 @@
         <v>0.11691119999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.6</v>
       </c>
@@ -684,17 +1652,32 @@
         <v>0.1199784</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -714,7 +1697,7 @@
         <v>0.13927500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -734,7 +1717,7 @@
         <v>0.14061000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -754,7 +1737,7 @@
         <v>0.15337500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -774,7 +1757,7 @@
         <v>0.14302200000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -794,17 +1777,32 @@
         <v>0.13216900000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -824,7 +1822,7 @@
         <v>0.132385</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -844,7 +1842,7 @@
         <v>0.118217</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -864,7 +1862,7 @@
         <v>0.113538</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -884,7 +1882,7 @@
         <v>0.117169</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -250,19 +250,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.11695340000000001</c:v>
+                  <c:v>4.0532599999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1180488</c:v>
+                  <c:v>4.5536E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14378280000000002</c:v>
+                  <c:v>5.0608200000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1479096</c:v>
+                  <c:v>5.2423399999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14169020000000002</c:v>
+                  <c:v>5.7444799999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -338,19 +338,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.7098199999999987E-2</c:v>
+                  <c:v>4.0937000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1493600000000004E-2</c:v>
+                  <c:v>4.3787200000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11411579999999999</c:v>
+                  <c:v>4.4896999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11691119999999999</c:v>
+                  <c:v>4.2803800000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1199784</c:v>
+                  <c:v>4.4049999999999992E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,7 +382,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -390,13 +389,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1611622272"/>
-        <c:axId val="1611624992"/>
+        <c:axId val="660341712"/>
+        <c:axId val="660342256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1611622272"/>
+        <c:axId val="660341712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="3.0000000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -507,12 +507,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611624992"/>
+        <c:crossAx val="660342256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1611624992"/>
+        <c:axId val="660342256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611622272"/>
+        <c:crossAx val="660341712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1266,16 +1266,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="B2">
         <f>AVERAGE(B12:B16)</f>
-        <v>0.11695340000000001</v>
+        <v>4.0532599999999995E-2</v>
       </c>
       <c r="C2">
         <f>AVERAGE(B20:B24)</f>
-        <v>8.7098199999999987E-2</v>
+        <v>4.0937000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1606,11 +1606,11 @@
       </c>
       <c r="B3">
         <f>AVERAGE(C12:C16)</f>
-        <v>0.1180488</v>
+        <v>4.5536E-2</v>
       </c>
       <c r="C3">
         <f>AVERAGE(C20:C24)</f>
-        <v>7.1493600000000004E-2</v>
+        <v>4.3787200000000005E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,11 +1619,11 @@
       </c>
       <c r="B4">
         <f>AVERAGE(D12:D16)</f>
-        <v>0.14378280000000002</v>
+        <v>5.0608200000000006E-2</v>
       </c>
       <c r="C4">
         <f>AVERAGE(D20:D24)</f>
-        <v>0.11411579999999999</v>
+        <v>4.4896999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="B5">
         <f>AVERAGE(E12:E16)</f>
-        <v>0.1479096</v>
+        <v>5.2423399999999995E-2</v>
       </c>
       <c r="C5">
         <f>AVERAGE(E20:E24)</f>
-        <v>0.11691119999999999</v>
+        <v>4.2803800000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,11 +1645,16 @@
       </c>
       <c r="B6">
         <f>AVERAGE(F12:F16)</f>
-        <v>0.14169020000000002</v>
+        <v>5.7444799999999997E-2</v>
       </c>
       <c r="C6">
         <f>AVERAGE(F20:F24)</f>
-        <v>0.1199784</v>
+        <v>4.4049999999999992E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4.1454999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,19 +1687,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>0.13725300000000001</v>
+        <v>4.1991000000000001E-2</v>
       </c>
       <c r="C12">
-        <v>0.15845699999999999</v>
+        <v>4.6531999999999997E-2</v>
       </c>
       <c r="D12">
-        <v>0.17322799999999999</v>
+        <v>5.2331999999999997E-2</v>
       </c>
       <c r="E12">
-        <v>0.146421</v>
+        <v>5.2831000000000003E-2</v>
       </c>
       <c r="F12">
-        <v>0.13927500000000001</v>
+        <v>5.7761E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,19 +1707,19 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0.13980699999999999</v>
+        <v>4.1454999999999999E-2</v>
       </c>
       <c r="C13">
-        <v>0.102025</v>
+        <v>4.5295000000000002E-2</v>
       </c>
       <c r="D13">
-        <v>0.12753999999999999</v>
+        <v>5.1380000000000002E-2</v>
       </c>
       <c r="E13">
-        <v>0.18535499999999999</v>
+        <v>5.2145999999999998E-2</v>
       </c>
       <c r="F13">
-        <v>0.14061000000000001</v>
+        <v>5.7500000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1722,19 +1727,19 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>0.102038</v>
+        <v>3.9761999999999999E-2</v>
       </c>
       <c r="C14">
-        <v>0.128056</v>
+        <v>4.5268999999999997E-2</v>
       </c>
       <c r="D14">
-        <v>0.12694</v>
+        <v>5.1407000000000001E-2</v>
       </c>
       <c r="E14">
-        <v>0.14286599999999999</v>
+        <v>5.2857000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>0.15337500000000001</v>
+        <v>5.7230000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1742,19 +1747,19 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>6.9843000000000002E-2</v>
+        <v>3.9723000000000001E-2</v>
       </c>
       <c r="C15">
-        <v>0.139103</v>
+        <v>4.5349E-2</v>
       </c>
       <c r="D15">
-        <v>0.16439799999999999</v>
+        <v>5.1406E-2</v>
       </c>
       <c r="E15">
-        <v>0.15009600000000001</v>
+        <v>5.2152999999999998E-2</v>
       </c>
       <c r="F15">
-        <v>0.14302200000000001</v>
+        <v>5.7361000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,19 +1767,19 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>0.135826</v>
+        <v>3.9732000000000003E-2</v>
       </c>
       <c r="C16">
-        <v>6.2603000000000006E-2</v>
+        <v>4.5234999999999997E-2</v>
       </c>
       <c r="D16">
-        <v>0.126808</v>
+        <v>4.6516000000000002E-2</v>
       </c>
       <c r="E16">
-        <v>0.11481</v>
+        <v>5.2130000000000003E-2</v>
       </c>
       <c r="F16">
-        <v>0.13216900000000001</v>
+        <v>5.7371999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,19 +1812,19 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>9.7626000000000004E-2</v>
+        <v>4.0697999999999998E-2</v>
       </c>
       <c r="C20">
-        <v>7.8982999999999998E-2</v>
+        <v>4.3825999999999997E-2</v>
       </c>
       <c r="D20">
-        <v>0.116046</v>
+        <v>4.6406999999999997E-2</v>
       </c>
       <c r="E20">
-        <v>0.113855</v>
+        <v>4.2811000000000002E-2</v>
       </c>
       <c r="F20">
-        <v>0.132385</v>
+        <v>4.3976000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1827,19 +1832,19 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.11014400000000001</v>
+        <v>4.1008000000000003E-2</v>
       </c>
       <c r="C21">
-        <v>0.102614</v>
+        <v>4.3801E-2</v>
       </c>
       <c r="D21">
-        <v>0.102688</v>
+        <v>4.623E-2</v>
       </c>
       <c r="E21">
-        <v>0.14998700000000001</v>
+        <v>4.2819000000000003E-2</v>
       </c>
       <c r="F21">
-        <v>0.118217</v>
+        <v>4.4054000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,19 +1852,19 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>6.1145999999999999E-2</v>
+        <v>4.0988999999999998E-2</v>
       </c>
       <c r="C22">
-        <v>6.4558000000000004E-2</v>
+        <v>4.3820999999999999E-2</v>
       </c>
       <c r="D22">
-        <v>0.117448</v>
+        <v>4.6224000000000001E-2</v>
       </c>
       <c r="E22">
-        <v>0.109419</v>
+        <v>4.2758999999999998E-2</v>
       </c>
       <c r="F22">
-        <v>0.113538</v>
+        <v>4.3945999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,19 +1872,19 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.10387299999999999</v>
+        <v>4.1005E-2</v>
       </c>
       <c r="C23">
-        <v>3.6339000000000003E-2</v>
+        <v>4.3778999999999998E-2</v>
       </c>
       <c r="D23">
-        <v>0.11763899999999999</v>
+        <v>4.4363E-2</v>
       </c>
       <c r="E23">
-        <v>9.9464999999999998E-2</v>
+        <v>4.2826999999999997E-2</v>
       </c>
       <c r="F23">
-        <v>0.117169</v>
+        <v>4.4006000000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1887,19 +1892,19 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>6.2701999999999994E-2</v>
+        <v>4.0985000000000001E-2</v>
       </c>
       <c r="C24">
-        <v>7.4973999999999999E-2</v>
+        <v>4.3708999999999998E-2</v>
       </c>
       <c r="D24">
-        <v>0.116758</v>
+        <v>4.1260999999999999E-2</v>
       </c>
       <c r="E24">
-        <v>0.11183</v>
+        <v>4.2803000000000001E-2</v>
       </c>
       <c r="F24">
-        <v>0.11858299999999999</v>
+        <v>4.4268000000000002E-2</v>
       </c>
     </row>
   </sheetData>
